--- a/Vignettes/Identification and Visualization in Top-Down Yeast Proteoform Data/calibrated_identification_files/05-29-17_B7A_yeast_td_redo_fract3_rep1_MS1_1_calibrated.xlsx
+++ b/Vignettes/Identification and Visualization in Top-Down Yeast Proteoform Data/calibrated_identification_files/05-29-17_B7A_yeast_td_redo_fract3_rep1_MS1_1_calibrated.xlsx
@@ -685,7 +685,7 @@
         <x:v>82504.56</x:v>
       </x:c>
       <x:c r="D4" s="6" t="n">
-        <x:v>985.58319</x:v>
+        <x:v>985.58877</x:v>
       </x:c>
       <x:c r="E4" s="6" t="n">
         <x:v>6892.1349</x:v>
@@ -699,7 +699,7 @@
         <x:v>95478.16</x:v>
       </x:c>
       <x:c r="D5" s="6" t="n">
-        <x:v>862.51013</x:v>
+        <x:v>862.51551</x:v>
       </x:c>
       <x:c r="E5" s="6" t="n">
         <x:v>6892.137</x:v>
@@ -713,7 +713,7 @@
         <x:v>71903.38</x:v>
       </x:c>
       <x:c r="D6" s="6" t="n">
-        <x:v>766.78662</x:v>
+        <x:v>766.79185</x:v>
       </x:c>
       <x:c r="E6" s="6" t="n">
         <x:v>6892.1359</x:v>
@@ -727,7 +727,7 @@
         <x:v>24222.63</x:v>
       </x:c>
       <x:c r="D7" s="6" t="n">
-        <x:v>690.20781</x:v>
+        <x:v>690.21293</x:v>
       </x:c>
       <x:c r="E7" s="6" t="n">
         <x:v>6892.1321</x:v>
@@ -790,7 +790,7 @@
         <x:v>82504.56</x:v>
       </x:c>
       <x:c r="D10" s="6" t="n">
-        <x:v>985.58319</x:v>
+        <x:v>985.58877</x:v>
       </x:c>
       <x:c r="E10" s="6" t="n">
         <x:v>6892.1349</x:v>
@@ -804,7 +804,7 @@
         <x:v>95478.16</x:v>
       </x:c>
       <x:c r="D11" s="6" t="n">
-        <x:v>862.51013</x:v>
+        <x:v>862.51551</x:v>
       </x:c>
       <x:c r="E11" s="6" t="n">
         <x:v>6892.137</x:v>
@@ -818,7 +818,7 @@
         <x:v>71903.38</x:v>
       </x:c>
       <x:c r="D12" s="6" t="n">
-        <x:v>766.78662</x:v>
+        <x:v>766.79185</x:v>
       </x:c>
       <x:c r="E12" s="6" t="n">
         <x:v>6892.1359</x:v>
@@ -832,7 +832,7 @@
         <x:v>24222.63</x:v>
       </x:c>
       <x:c r="D13" s="6" t="n">
-        <x:v>690.20781</x:v>
+        <x:v>690.21293</x:v>
       </x:c>
       <x:c r="E13" s="6" t="n">
         <x:v>6892.1321</x:v>
@@ -895,7 +895,7 @@
         <x:v>69365.21</x:v>
       </x:c>
       <x:c r="D16" s="6" t="n">
-        <x:v>1025.31055</x:v>
+        <x:v>1025.31618</x:v>
       </x:c>
       <x:c r="E16" s="6" t="n">
         <x:v>7170.2272</x:v>
@@ -909,7 +909,7 @@
         <x:v>93864.52</x:v>
       </x:c>
       <x:c r="D17" s="6" t="n">
-        <x:v>897.27155</x:v>
+        <x:v>897.27699</x:v>
       </x:c>
       <x:c r="E17" s="6" t="n">
         <x:v>7170.2253</x:v>
@@ -923,7 +923,7 @@
         <x:v>70161.17</x:v>
       </x:c>
       <x:c r="D18" s="6" t="n">
-        <x:v>797.68566</x:v>
+        <x:v>797.69095</x:v>
       </x:c>
       <x:c r="E18" s="6" t="n">
         <x:v>7170.2307</x:v>
@@ -986,7 +986,7 @@
         <x:v>69365.21</x:v>
       </x:c>
       <x:c r="D21" s="6" t="n">
-        <x:v>1025.31055</x:v>
+        <x:v>1025.31618</x:v>
       </x:c>
       <x:c r="E21" s="6" t="n">
         <x:v>7170.2272</x:v>
@@ -1000,7 +1000,7 @@
         <x:v>93864.52</x:v>
       </x:c>
       <x:c r="D22" s="6" t="n">
-        <x:v>897.27155</x:v>
+        <x:v>897.27699</x:v>
       </x:c>
       <x:c r="E22" s="6" t="n">
         <x:v>7170.2253</x:v>
@@ -1014,7 +1014,7 @@
         <x:v>70161.17</x:v>
       </x:c>
       <x:c r="D23" s="6" t="n">
-        <x:v>797.68566</x:v>
+        <x:v>797.69095</x:v>
       </x:c>
       <x:c r="E23" s="6" t="n">
         <x:v>7170.2307</x:v>
@@ -1077,7 +1077,7 @@
         <x:v>48291.98</x:v>
       </x:c>
       <x:c r="D26" s="6" t="n">
-        <x:v>985.58383</x:v>
+        <x:v>985.58944</x:v>
       </x:c>
       <x:c r="E26" s="6" t="n">
         <x:v>6892.1358</x:v>
@@ -1091,7 +1091,7 @@
         <x:v>60878.5</x:v>
       </x:c>
       <x:c r="D27" s="6" t="n">
-        <x:v>862.51067</x:v>
+        <x:v>862.51609</x:v>
       </x:c>
       <x:c r="E27" s="6" t="n">
         <x:v>6892.1375</x:v>
@@ -1105,7 +1105,7 @@
         <x:v>48077.03</x:v>
       </x:c>
       <x:c r="D28" s="6" t="n">
-        <x:v>766.78711</x:v>
+        <x:v>766.79237</x:v>
       </x:c>
       <x:c r="E28" s="6" t="n">
         <x:v>6892.1376</x:v>
@@ -1119,7 +1119,7 @@
         <x:v>11497.4</x:v>
       </x:c>
       <x:c r="D29" s="6" t="n">
-        <x:v>690.20824</x:v>
+        <x:v>690.21339</x:v>
       </x:c>
       <x:c r="E29" s="6" t="n">
         <x:v>6892.1362</x:v>
@@ -1182,7 +1182,7 @@
         <x:v>49099.74</x:v>
       </x:c>
       <x:c r="D32" s="6" t="n">
-        <x:v>1025.3105</x:v>
+        <x:v>1025.31617</x:v>
       </x:c>
       <x:c r="E32" s="6" t="n">
         <x:v>7170.2288</x:v>
@@ -1196,7 +1196,7 @@
         <x:v>65430.56</x:v>
       </x:c>
       <x:c r="D33" s="6" t="n">
-        <x:v>897.27151</x:v>
+        <x:v>897.27698</x:v>
       </x:c>
       <x:c r="E33" s="6" t="n">
         <x:v>7170.2291</x:v>
@@ -1210,7 +1210,7 @@
         <x:v>44662.41</x:v>
       </x:c>
       <x:c r="D34" s="6" t="n">
-        <x:v>797.68562</x:v>
+        <x:v>797.69094</x:v>
       </x:c>
       <x:c r="E34" s="6" t="n">
         <x:v>7170.2322</x:v>
@@ -1273,7 +1273,7 @@
         <x:v>24785.57</x:v>
       </x:c>
       <x:c r="D37" s="6" t="n">
-        <x:v>985.58639</x:v>
+        <x:v>985.59194</x:v>
       </x:c>
       <x:c r="E37" s="6" t="n">
         <x:v>6892.1499</x:v>
@@ -1287,7 +1287,7 @@
         <x:v>47648.57</x:v>
       </x:c>
       <x:c r="D38" s="6" t="n">
-        <x:v>862.51292</x:v>
+        <x:v>862.51828</x:v>
       </x:c>
       <x:c r="E38" s="6" t="n">
         <x:v>6892.1524</x:v>
@@ -1301,7 +1301,7 @@
         <x:v>37864.34</x:v>
       </x:c>
       <x:c r="D39" s="6" t="n">
-        <x:v>766.78911</x:v>
+        <x:v>766.79432</x:v>
       </x:c>
       <x:c r="E39" s="6" t="n">
         <x:v>6892.1549</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>7198.43</x:v>
       </x:c>
       <x:c r="D40" s="6" t="n">
-        <x:v>690.21007</x:v>
+        <x:v>690.21516</x:v>
       </x:c>
       <x:c r="E40" s="6" t="n">
         <x:v>6892.1526</x:v>
@@ -1378,7 +1378,7 @@
         <x:v>24785.57</x:v>
       </x:c>
       <x:c r="D43" s="6" t="n">
-        <x:v>985.58639</x:v>
+        <x:v>985.59194</x:v>
       </x:c>
       <x:c r="E43" s="6" t="n">
         <x:v>6892.1499</x:v>
@@ -1392,7 +1392,7 @@
         <x:v>47648.57</x:v>
       </x:c>
       <x:c r="D44" s="6" t="n">
-        <x:v>862.51292</x:v>
+        <x:v>862.51828</x:v>
       </x:c>
       <x:c r="E44" s="6" t="n">
         <x:v>6892.1524</x:v>
@@ -1406,7 +1406,7 @@
         <x:v>37864.34</x:v>
       </x:c>
       <x:c r="D45" s="6" t="n">
-        <x:v>766.78911</x:v>
+        <x:v>766.79432</x:v>
       </x:c>
       <x:c r="E45" s="6" t="n">
         <x:v>6892.1549</x:v>
@@ -1420,7 +1420,7 @@
         <x:v>7198.43</x:v>
       </x:c>
       <x:c r="D46" s="6" t="n">
-        <x:v>690.21007</x:v>
+        <x:v>690.21516</x:v>
       </x:c>
       <x:c r="E46" s="6" t="n">
         <x:v>6892.1526</x:v>
@@ -1483,7 +1483,7 @@
         <x:v>27681.38</x:v>
       </x:c>
       <x:c r="D49" s="6" t="n">
-        <x:v>1025.3126</x:v>
+        <x:v>1025.31827</x:v>
       </x:c>
       <x:c r="E49" s="6" t="n">
         <x:v>7170.2343</x:v>
@@ -1497,7 +1497,7 @@
         <x:v>42389.93</x:v>
       </x:c>
       <x:c r="D50" s="6" t="n">
-        <x:v>897.27334</x:v>
+        <x:v>897.27881</x:v>
       </x:c>
       <x:c r="E50" s="6" t="n">
         <x:v>7170.2396</x:v>
@@ -1511,7 +1511,7 @@
         <x:v>19437.1</x:v>
       </x:c>
       <x:c r="D51" s="6" t="n">
-        <x:v>797.68725</x:v>
+        <x:v>797.69257</x:v>
       </x:c>
       <x:c r="E51" s="6" t="n">
         <x:v>7170.2365</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>13500.13</x:v>
       </x:c>
       <x:c r="D52" s="6" t="n">
-        <x:v>718.01838</x:v>
+        <x:v>718.02357</x:v>
       </x:c>
       <x:c r="E52" s="6" t="n">
         <x:v>7170.2367</x:v>
@@ -1588,7 +1588,7 @@
         <x:v>20777.79</x:v>
       </x:c>
       <x:c r="D55" s="6" t="n">
-        <x:v>985.58618</x:v>
+        <x:v>985.59173</x:v>
       </x:c>
       <x:c r="E55" s="6" t="n">
         <x:v>6892.15</x:v>
@@ -1602,7 +1602,7 @@
         <x:v>38470.94</x:v>
       </x:c>
       <x:c r="D56" s="6" t="n">
-        <x:v>862.51274</x:v>
+        <x:v>862.5181</x:v>
       </x:c>
       <x:c r="E56" s="6" t="n">
         <x:v>6892.1496</x:v>
@@ -1616,7 +1616,7 @@
         <x:v>32482.01</x:v>
       </x:c>
       <x:c r="D57" s="6" t="n">
-        <x:v>766.78895</x:v>
+        <x:v>766.79416</x:v>
       </x:c>
       <x:c r="E57" s="6" t="n">
         <x:v>6892.1548</x:v>
@@ -1630,7 +1630,7 @@
         <x:v>8577.4</x:v>
       </x:c>
       <x:c r="D58" s="6" t="n">
-        <x:v>690.20992</x:v>
+        <x:v>690.21501</x:v>
       </x:c>
       <x:c r="E58" s="6" t="n">
         <x:v>6892.1537</x:v>
@@ -1693,7 +1693,7 @@
         <x:v>21176.32</x:v>
       </x:c>
       <x:c r="D61" s="6" t="n">
-        <x:v>1025.31237</x:v>
+        <x:v>1025.31798</x:v>
       </x:c>
       <x:c r="E61" s="6" t="n">
         <x:v>7170.2376</x:v>
@@ -1707,7 +1707,7 @@
         <x:v>36981.7</x:v>
       </x:c>
       <x:c r="D62" s="6" t="n">
-        <x:v>897.27316</x:v>
+        <x:v>897.27857</x:v>
       </x:c>
       <x:c r="E62" s="6" t="n">
         <x:v>7170.2397</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>26423.41</x:v>
       </x:c>
       <x:c r="D63" s="6" t="n">
-        <x:v>797.6871</x:v>
+        <x:v>797.69236</x:v>
       </x:c>
       <x:c r="E63" s="6" t="n">
         <x:v>7170.245</x:v>
@@ -1735,7 +1735,7 @@
         <x:v>5492.96</x:v>
       </x:c>
       <x:c r="D64" s="6" t="n">
-        <x:v>718.01826</x:v>
+        <x:v>718.02339</x:v>
       </x:c>
       <x:c r="E64" s="6" t="n">
         <x:v>7170.2449</x:v>
@@ -1798,7 +1798,7 @@
         <x:v>21176.32</x:v>
       </x:c>
       <x:c r="D67" s="6" t="n">
-        <x:v>1025.31237</x:v>
+        <x:v>1025.31798</x:v>
       </x:c>
       <x:c r="E67" s="6" t="n">
         <x:v>7170.2376</x:v>
@@ -1812,7 +1812,7 @@
         <x:v>36981.7</x:v>
       </x:c>
       <x:c r="D68" s="6" t="n">
-        <x:v>897.27316</x:v>
+        <x:v>897.27857</x:v>
       </x:c>
       <x:c r="E68" s="6" t="n">
         <x:v>7170.2397</x:v>
@@ -1826,7 +1826,7 @@
         <x:v>26423.41</x:v>
       </x:c>
       <x:c r="D69" s="6" t="n">
-        <x:v>797.6871</x:v>
+        <x:v>797.69236</x:v>
       </x:c>
       <x:c r="E69" s="6" t="n">
         <x:v>7170.245</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>5492.96</x:v>
       </x:c>
       <x:c r="D70" s="6" t="n">
-        <x:v>718.01826</x:v>
+        <x:v>718.02339</x:v>
       </x:c>
       <x:c r="E70" s="6" t="n">
         <x:v>7170.2449</x:v>
@@ -1903,7 +1903,7 @@
         <x:v>20189.53</x:v>
       </x:c>
       <x:c r="D73" s="6" t="n">
-        <x:v>985.58551</x:v>
+        <x:v>985.59112</x:v>
       </x:c>
       <x:c r="E73" s="6" t="n">
         <x:v>6892.1428</x:v>
@@ -1917,7 +1917,7 @@
         <x:v>38433.07</x:v>
       </x:c>
       <x:c r="D74" s="6" t="n">
-        <x:v>862.51213</x:v>
+        <x:v>862.51755</x:v>
       </x:c>
       <x:c r="E74" s="6" t="n">
         <x:v>6892.1423</x:v>
@@ -1931,7 +1931,7 @@
         <x:v>30552.95</x:v>
       </x:c>
       <x:c r="D75" s="6" t="n">
-        <x:v>766.78841</x:v>
+        <x:v>766.79367</x:v>
       </x:c>
       <x:c r="E75" s="6" t="n">
         <x:v>6892.1456</x:v>
@@ -1994,7 +1994,7 @@
         <x:v>17347.72</x:v>
       </x:c>
       <x:c r="D78" s="6" t="n">
-        <x:v>985.58618</x:v>
+        <x:v>985.5917</x:v>
       </x:c>
       <x:c r="E78" s="6" t="n">
         <x:v>6892.1541</x:v>
@@ -2008,7 +2008,7 @@
         <x:v>27380.49</x:v>
       </x:c>
       <x:c r="D79" s="6" t="n">
-        <x:v>862.51275</x:v>
+        <x:v>862.51807</x:v>
       </x:c>
       <x:c r="E79" s="6" t="n">
         <x:v>6892.1474</x:v>
@@ -2022,7 +2022,7 @@
         <x:v>29359.36</x:v>
       </x:c>
       <x:c r="D80" s="6" t="n">
-        <x:v>766.78897</x:v>
+        <x:v>766.79414</x:v>
       </x:c>
       <x:c r="E80" s="6" t="n">
         <x:v>6892.1549</x:v>
@@ -2036,7 +2036,7 @@
         <x:v>7967.62</x:v>
       </x:c>
       <x:c r="D81" s="6" t="n">
-        <x:v>690.20994</x:v>
+        <x:v>690.215</x:v>
       </x:c>
       <x:c r="E81" s="6" t="n">
         <x:v>6892.1565</x:v>
@@ -2099,7 +2099,7 @@
         <x:v>19070.44</x:v>
       </x:c>
       <x:c r="D84" s="6" t="n">
-        <x:v>1025.31262</x:v>
+        <x:v>1025.31832</x:v>
       </x:c>
       <x:c r="E84" s="6" t="n">
         <x:v>7170.2358</x:v>
@@ -2113,7 +2113,7 @@
         <x:v>33044.49</x:v>
       </x:c>
       <x:c r="D85" s="6" t="n">
-        <x:v>897.27335</x:v>
+        <x:v>897.27885</x:v>
       </x:c>
       <x:c r="E85" s="6" t="n">
         <x:v>7170.2386</x:v>
@@ -2127,7 +2127,7 @@
         <x:v>18947.62</x:v>
       </x:c>
       <x:c r="D86" s="6" t="n">
-        <x:v>797.68726</x:v>
+        <x:v>797.6926</x:v>
       </x:c>
       <x:c r="E86" s="6" t="n">
         <x:v>7170.2386</x:v>
@@ -2141,7 +2141,7 @@
         <x:v>8533.44</x:v>
       </x:c>
       <x:c r="D87" s="6" t="n">
-        <x:v>718.01837</x:v>
+        <x:v>718.0236</x:v>
       </x:c>
       <x:c r="E87" s="6" t="n">
         <x:v>7170.2346</x:v>
@@ -2204,7 +2204,7 @@
         <x:v>17696.44</x:v>
       </x:c>
       <x:c r="D90" s="6" t="n">
-        <x:v>1025.31244</x:v>
+        <x:v>1025.31805</x:v>
       </x:c>
       <x:c r="E90" s="6" t="n">
         <x:v>7170.2362</x:v>
@@ -2218,7 +2218,7 @@
         <x:v>26559.84</x:v>
       </x:c>
       <x:c r="D91" s="6" t="n">
-        <x:v>897.27322</x:v>
+        <x:v>897.27863</x:v>
       </x:c>
       <x:c r="E91" s="6" t="n">
         <x:v>7170.24</x:v>
@@ -2232,7 +2232,7 @@
         <x:v>20144.67</x:v>
       </x:c>
       <x:c r="D92" s="6" t="n">
-        <x:v>797.68716</x:v>
+        <x:v>797.69242</x:v>
       </x:c>
       <x:c r="E92" s="6" t="n">
         <x:v>7170.2429</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>4086.64</x:v>
       </x:c>
       <x:c r="D93" s="6" t="n">
-        <x:v>718.01831</x:v>
+        <x:v>718.02344</x:v>
       </x:c>
       <x:c r="E93" s="6" t="n">
         <x:v>7170.2464</x:v>
@@ -2309,7 +2309,7 @@
         <x:v>13832.08</x:v>
       </x:c>
       <x:c r="D96" s="6" t="n">
-        <x:v>985.5856</x:v>
+        <x:v>985.59108</x:v>
       </x:c>
       <x:c r="E96" s="6" t="n">
         <x:v>6892.1443</x:v>
@@ -2323,7 +2323,7 @@
         <x:v>28070.21</x:v>
       </x:c>
       <x:c r="D97" s="6" t="n">
-        <x:v>862.51224</x:v>
+        <x:v>862.51753</x:v>
       </x:c>
       <x:c r="E97" s="6" t="n">
         <x:v>6892.154</x:v>
@@ -2337,7 +2337,7 @@
         <x:v>19411.6</x:v>
       </x:c>
       <x:c r="D98" s="6" t="n">
-        <x:v>766.78852</x:v>
+        <x:v>766.79367</x:v>
       </x:c>
       <x:c r="E98" s="6" t="n">
         <x:v>6892.1501</x:v>
@@ -2351,7 +2351,7 @@
         <x:v>6418.01</x:v>
       </x:c>
       <x:c r="D99" s="6" t="n">
-        <x:v>690.20955</x:v>
+        <x:v>690.21457</x:v>
       </x:c>
       <x:c r="E99" s="6" t="n">
         <x:v>6892.1557</x:v>
@@ -2414,7 +2414,7 @@
         <x:v>12706.5</x:v>
       </x:c>
       <x:c r="D102" s="6" t="n">
-        <x:v>985.58515</x:v>
+        <x:v>985.59067</x:v>
       </x:c>
       <x:c r="E102" s="6" t="n">
         <x:v>6892.1488</x:v>
@@ -2428,7 +2428,7 @@
         <x:v>24734.61</x:v>
       </x:c>
       <x:c r="D103" s="6" t="n">
-        <x:v>862.51185</x:v>
+        <x:v>862.51717</x:v>
       </x:c>
       <x:c r="E103" s="6" t="n">
         <x:v>6892.1498</x:v>
@@ -2442,7 +2442,7 @@
         <x:v>22306.06</x:v>
       </x:c>
       <x:c r="D104" s="6" t="n">
-        <x:v>766.78817</x:v>
+        <x:v>766.79334</x:v>
       </x:c>
       <x:c r="E104" s="6" t="n">
         <x:v>6892.1539</x:v>
@@ -2456,7 +2456,7 @@
         <x:v>5796.41</x:v>
       </x:c>
       <x:c r="D105" s="6" t="n">
-        <x:v>690.20922</x:v>
+        <x:v>690.21428</x:v>
       </x:c>
       <x:c r="E105" s="6" t="n">
         <x:v>6892.1539</x:v>
@@ -2519,7 +2519,7 @@
         <x:v>12842.13</x:v>
       </x:c>
       <x:c r="D108" s="6" t="n">
-        <x:v>985.58522</x:v>
+        <x:v>985.59085</x:v>
       </x:c>
       <x:c r="E108" s="6" t="n">
         <x:v>6892.1409</x:v>
@@ -2533,7 +2533,7 @@
         <x:v>24376.47</x:v>
       </x:c>
       <x:c r="D109" s="6" t="n">
-        <x:v>862.51187</x:v>
+        <x:v>862.51732</x:v>
       </x:c>
       <x:c r="E109" s="6" t="n">
         <x:v>6892.145</x:v>
@@ -2547,7 +2547,7 @@
         <x:v>21885.39</x:v>
       </x:c>
       <x:c r="D110" s="6" t="n">
-        <x:v>766.78816</x:v>
+        <x:v>766.79346</x:v>
       </x:c>
       <x:c r="E110" s="6" t="n">
         <x:v>6892.1484</x:v>
@@ -2610,7 +2610,7 @@
         <x:v>17813.25</x:v>
       </x:c>
       <x:c r="D113" s="6" t="n">
-        <x:v>1025.3125</x:v>
+        <x:v>1025.31807</x:v>
       </x:c>
       <x:c r="E113" s="6" t="n">
         <x:v>7170.2371</x:v>
@@ -2624,7 +2624,7 @@
         <x:v>22355.84</x:v>
       </x:c>
       <x:c r="D114" s="6" t="n">
-        <x:v>897.27327</x:v>
+        <x:v>897.27865</x:v>
       </x:c>
       <x:c r="E114" s="6" t="n">
         <x:v>7170.241</x:v>
@@ -2638,7 +2638,7 @@
         <x:v>14848.81</x:v>
       </x:c>
       <x:c r="D115" s="6" t="n">
-        <x:v>797.68721</x:v>
+        <x:v>797.69244</x:v>
       </x:c>
       <x:c r="E115" s="6" t="n">
         <x:v>7170.2434</x:v>
@@ -2701,7 +2701,7 @@
         <x:v>12319.15</x:v>
       </x:c>
       <x:c r="D118" s="6" t="n">
-        <x:v>1025.31129</x:v>
+        <x:v>1025.31699</x:v>
       </x:c>
       <x:c r="E118" s="6" t="n">
         <x:v>7170.2392</x:v>
@@ -2715,7 +2715,7 @@
         <x:v>24638.69</x:v>
       </x:c>
       <x:c r="D119" s="6" t="n">
-        <x:v>897.27219</x:v>
+        <x:v>897.27769</x:v>
       </x:c>
       <x:c r="E119" s="6" t="n">
         <x:v>7170.2379</x:v>
@@ -2729,7 +2729,7 @@
         <x:v>16457.95</x:v>
       </x:c>
       <x:c r="D120" s="6" t="n">
-        <x:v>797.68622</x:v>
+        <x:v>797.69156</x:v>
       </x:c>
       <x:c r="E120" s="6" t="n">
         <x:v>7170.2406</x:v>
@@ -2792,7 +2792,7 @@
         <x:v>12319.15</x:v>
       </x:c>
       <x:c r="D123" s="6" t="n">
-        <x:v>1025.31129</x:v>
+        <x:v>1025.31699</x:v>
       </x:c>
       <x:c r="E123" s="6" t="n">
         <x:v>7170.2392</x:v>
@@ -2806,7 +2806,7 @@
         <x:v>24638.69</x:v>
       </x:c>
       <x:c r="D124" s="6" t="n">
-        <x:v>897.27219</x:v>
+        <x:v>897.27769</x:v>
       </x:c>
       <x:c r="E124" s="6" t="n">
         <x:v>7170.2379</x:v>
@@ -2820,7 +2820,7 @@
         <x:v>16457.95</x:v>
       </x:c>
       <x:c r="D125" s="6" t="n">
-        <x:v>797.68622</x:v>
+        <x:v>797.69156</x:v>
       </x:c>
       <x:c r="E125" s="6" t="n">
         <x:v>7170.2406</x:v>
@@ -2883,7 +2883,7 @@
         <x:v>13478.3</x:v>
       </x:c>
       <x:c r="D128" s="6" t="n">
-        <x:v>945.85909</x:v>
+        <x:v>945.86457</x:v>
       </x:c>
       <x:c r="E128" s="6" t="n">
         <x:v>6614.0493</x:v>
@@ -2897,7 +2897,7 @@
         <x:v>17027</x:v>
       </x:c>
       <x:c r="D129" s="6" t="n">
-        <x:v>827.75154</x:v>
+        <x:v>827.75684</x:v>
       </x:c>
       <x:c r="E129" s="6" t="n">
         <x:v>6614.061</x:v>
@@ -2911,7 +2911,7 @@
         <x:v>19851.34</x:v>
       </x:c>
       <x:c r="D130" s="6" t="n">
-        <x:v>735.89011</x:v>
+        <x:v>735.89527</x:v>
       </x:c>
       <x:c r="E130" s="6" t="n">
         <x:v>6614.0592</x:v>
@@ -2974,7 +2974,7 @@
         <x:v>13478.3</x:v>
       </x:c>
       <x:c r="D133" s="6" t="n">
-        <x:v>945.85909</x:v>
+        <x:v>945.86457</x:v>
       </x:c>
       <x:c r="E133" s="6" t="n">
         <x:v>6614.0493</x:v>
@@ -2988,7 +2988,7 @@
         <x:v>17027</x:v>
       </x:c>
       <x:c r="D134" s="6" t="n">
-        <x:v>827.75154</x:v>
+        <x:v>827.75684</x:v>
       </x:c>
       <x:c r="E134" s="6" t="n">
         <x:v>6614.061</x:v>
@@ -3002,7 +3002,7 @@
         <x:v>19851.34</x:v>
       </x:c>
       <x:c r="D135" s="6" t="n">
-        <x:v>735.89011</x:v>
+        <x:v>735.89527</x:v>
       </x:c>
       <x:c r="E135" s="6" t="n">
         <x:v>6614.0592</x:v>
@@ -3065,7 +3065,7 @@
         <x:v>10743.75</x:v>
       </x:c>
       <x:c r="D138" s="6" t="n">
-        <x:v>1025.31267</x:v>
+        <x:v>1025.31824</x:v>
       </x:c>
       <x:c r="E138" s="6" t="n">
         <x:v>7170.24</x:v>
@@ -3079,7 +3079,7 @@
         <x:v>19681.7</x:v>
       </x:c>
       <x:c r="D139" s="6" t="n">
-        <x:v>897.27342</x:v>
+        <x:v>897.2788</x:v>
       </x:c>
       <x:c r="E139" s="6" t="n">
         <x:v>7170.2447</x:v>
@@ -3093,7 +3093,7 @@
         <x:v>15742.43</x:v>
       </x:c>
       <x:c r="D140" s="6" t="n">
-        <x:v>797.68734</x:v>
+        <x:v>797.69257</x:v>
       </x:c>
       <x:c r="E140" s="6" t="n">
         <x:v>7170.2424</x:v>
@@ -3107,7 +3107,7 @@
         <x:v>3746.39</x:v>
       </x:c>
       <x:c r="D141" s="6" t="n">
-        <x:v>718.01848</x:v>
+        <x:v>718.02358</x:v>
       </x:c>
       <x:c r="E141" s="6" t="n">
         <x:v>7170.2454</x:v>
@@ -3170,7 +3170,7 @@
         <x:v>9161.71</x:v>
       </x:c>
       <x:c r="D144" s="6" t="n">
-        <x:v>985.58305</x:v>
+        <x:v>985.58846</x:v>
       </x:c>
       <x:c r="E144" s="6" t="n">
         <x:v>6892.131</x:v>
@@ -3184,7 +3184,7 @@
         <x:v>26524.8</x:v>
       </x:c>
       <x:c r="D145" s="6" t="n">
-        <x:v>862.51004</x:v>
+        <x:v>862.51526</x:v>
       </x:c>
       <x:c r="E145" s="6" t="n">
         <x:v>6892.1332</x:v>
@@ -3198,7 +3198,7 @@
         <x:v>12843.55</x:v>
       </x:c>
       <x:c r="D146" s="6" t="n">
-        <x:v>766.78658</x:v>
+        <x:v>766.79165</x:v>
       </x:c>
       <x:c r="E146" s="6" t="n">
         <x:v>6892.1322</x:v>
@@ -3261,7 +3261,7 @@
         <x:v>9118.19</x:v>
       </x:c>
       <x:c r="D149" s="6" t="n">
-        <x:v>1025.31298</x:v>
+        <x:v>1025.31852</x:v>
       </x:c>
       <x:c r="E149" s="6" t="n">
         <x:v>7170.2382</x:v>
@@ -3275,7 +3275,7 @@
         <x:v>17282.2</x:v>
       </x:c>
       <x:c r="D150" s="6" t="n">
-        <x:v>897.27371</x:v>
+        <x:v>897.27906</x:v>
       </x:c>
       <x:c r="E150" s="6" t="n">
         <x:v>7170.2469</x:v>
@@ -3289,7 +3289,7 @@
         <x:v>17203.77</x:v>
       </x:c>
       <x:c r="D151" s="6" t="n">
-        <x:v>797.68761</x:v>
+        <x:v>797.6928</x:v>
       </x:c>
       <x:c r="E151" s="6" t="n">
         <x:v>7170.2448</x:v>
@@ -3303,7 +3303,7 @@
         <x:v>4372.77</x:v>
       </x:c>
       <x:c r="D152" s="6" t="n">
-        <x:v>718.01872</x:v>
+        <x:v>718.02379</x:v>
       </x:c>
       <x:c r="E152" s="6" t="n">
         <x:v>7170.2459</x:v>
@@ -3366,7 +3366,7 @@
         <x:v>12491.44</x:v>
       </x:c>
       <x:c r="D155" s="6" t="n">
-        <x:v>1025.30975</x:v>
+        <x:v>1025.31524</x:v>
       </x:c>
       <x:c r="E155" s="6" t="n">
         <x:v>7170.2188</x:v>
@@ -3380,7 +3380,7 @@
         <x:v>18265.12</x:v>
       </x:c>
       <x:c r="D156" s="6" t="n">
-        <x:v>897.27088</x:v>
+        <x:v>897.27618</x:v>
       </x:c>
       <x:c r="E156" s="6" t="n">
         <x:v>7170.2199</x:v>
@@ -3394,7 +3394,7 @@
         <x:v>12002</x:v>
       </x:c>
       <x:c r="D157" s="6" t="n">
-        <x:v>797.6851</x:v>
+        <x:v>797.69025</x:v>
       </x:c>
       <x:c r="E157" s="6" t="n">
         <x:v>7170.2233</x:v>
@@ -3457,7 +3457,7 @@
         <x:v>10161.21</x:v>
       </x:c>
       <x:c r="D160" s="6" t="n">
-        <x:v>945.85813</x:v>
+        <x:v>945.86361</x:v>
       </x:c>
       <x:c r="E160" s="6" t="n">
         <x:v>6614.05</x:v>
@@ -3471,7 +3471,7 @@
         <x:v>16139.17</x:v>
       </x:c>
       <x:c r="D161" s="6" t="n">
-        <x:v>827.7507</x:v>
+        <x:v>827.756</x:v>
       </x:c>
       <x:c r="E161" s="6" t="n">
         <x:v>6614.0607</x:v>
@@ -3485,7 +3485,7 @@
         <x:v>17349.61</x:v>
       </x:c>
       <x:c r="D162" s="6" t="n">
-        <x:v>735.88936</x:v>
+        <x:v>735.89452</x:v>
       </x:c>
       <x:c r="E162" s="6" t="n">
         <x:v>6614.0576</x:v>
@@ -3548,7 +3548,7 @@
         <x:v>6599.8</x:v>
       </x:c>
       <x:c r="D165" s="6" t="n">
-        <x:v>985.58665</x:v>
+        <x:v>985.59228</x:v>
       </x:c>
       <x:c r="E165" s="6" t="n">
         <x:v>6892.1444</x:v>
@@ -3562,7 +3562,7 @@
         <x:v>20244.78</x:v>
       </x:c>
       <x:c r="D166" s="6" t="n">
-        <x:v>862.51313</x:v>
+        <x:v>862.51858</x:v>
       </x:c>
       <x:c r="E166" s="6" t="n">
         <x:v>6892.1496</x:v>
@@ -3576,7 +3576,7 @@
         <x:v>15300.79</x:v>
       </x:c>
       <x:c r="D167" s="6" t="n">
-        <x:v>766.78927</x:v>
+        <x:v>766.79457</x:v>
       </x:c>
       <x:c r="E167" s="6" t="n">
         <x:v>6892.1525</x:v>
@@ -3639,7 +3639,7 @@
         <x:v>6599.8</x:v>
       </x:c>
       <x:c r="D170" s="6" t="n">
-        <x:v>985.58665</x:v>
+        <x:v>985.59228</x:v>
       </x:c>
       <x:c r="E170" s="6" t="n">
         <x:v>6892.1444</x:v>
@@ -3653,7 +3653,7 @@
         <x:v>20244.78</x:v>
       </x:c>
       <x:c r="D171" s="6" t="n">
-        <x:v>862.51313</x:v>
+        <x:v>862.51858</x:v>
       </x:c>
       <x:c r="E171" s="6" t="n">
         <x:v>6892.1496</x:v>
@@ -3667,7 +3667,7 @@
         <x:v>15300.79</x:v>
       </x:c>
       <x:c r="D172" s="6" t="n">
-        <x:v>766.78927</x:v>
+        <x:v>766.79457</x:v>
       </x:c>
       <x:c r="E172" s="6" t="n">
         <x:v>6892.1525</x:v>
@@ -3730,7 +3730,7 @@
         <x:v>10290.93</x:v>
       </x:c>
       <x:c r="D175" s="6" t="n">
-        <x:v>1025.31007</x:v>
+        <x:v>1025.31554</x:v>
       </x:c>
       <x:c r="E175" s="6" t="n">
         <x:v>7170.2217</x:v>
@@ -3744,7 +3744,7 @@
         <x:v>14430.06</x:v>
       </x:c>
       <x:c r="D176" s="6" t="n">
-        <x:v>897.27118</x:v>
+        <x:v>897.27645</x:v>
       </x:c>
       <x:c r="E176" s="6" t="n">
         <x:v>7170.2207</x:v>
@@ -3758,7 +3758,7 @@
         <x:v>11227.1</x:v>
       </x:c>
       <x:c r="D177" s="6" t="n">
-        <x:v>797.68537</x:v>
+        <x:v>797.69049</x:v>
       </x:c>
       <x:c r="E177" s="6" t="n">
         <x:v>7170.2236</x:v>
@@ -3821,7 +3821,7 @@
         <x:v>7410.34</x:v>
       </x:c>
       <x:c r="D180" s="6" t="n">
-        <x:v>985.58439</x:v>
+        <x:v>985.58979</x:v>
       </x:c>
       <x:c r="E180" s="6" t="n">
         <x:v>6892.1334</x:v>
@@ -3835,7 +3835,7 @@
         <x:v>15236.86</x:v>
       </x:c>
       <x:c r="D181" s="6" t="n">
-        <x:v>862.51121</x:v>
+        <x:v>862.51642</x:v>
       </x:c>
       <x:c r="E181" s="6" t="n">
         <x:v>6892.1398</x:v>
@@ -3849,7 +3849,7 @@
         <x:v>13748.51</x:v>
       </x:c>
       <x:c r="D182" s="6" t="n">
-        <x:v>766.78762</x:v>
+        <x:v>766.79269</x:v>
       </x:c>
       <x:c r="E182" s="6" t="n">
         <x:v>6892.1331</x:v>
@@ -3912,7 +3912,7 @@
         <x:v>7263.2</x:v>
       </x:c>
       <x:c r="D185" s="6" t="n">
-        <x:v>945.85744</x:v>
+        <x:v>945.86289</x:v>
       </x:c>
       <x:c r="E185" s="6" t="n">
         <x:v>6614.0513</x:v>
@@ -3926,7 +3926,7 @@
         <x:v>14761.29</x:v>
       </x:c>
       <x:c r="D186" s="6" t="n">
-        <x:v>827.7501</x:v>
+        <x:v>827.75537</x:v>
       </x:c>
       <x:c r="E186" s="6" t="n">
         <x:v>6614.059</x:v>
@@ -3940,7 +3940,7 @@
         <x:v>13450.46</x:v>
       </x:c>
       <x:c r="D187" s="6" t="n">
-        <x:v>735.88883</x:v>
+        <x:v>735.89396</x:v>
       </x:c>
       <x:c r="E187" s="6" t="n">
         <x:v>6614.0559</x:v>
@@ -4003,7 +4003,7 @@
         <x:v>6922.79</x:v>
       </x:c>
       <x:c r="D190" s="6" t="n">
-        <x:v>1025.31287</x:v>
+        <x:v>1025.3186</x:v>
       </x:c>
       <x:c r="E190" s="6" t="n">
         <x:v>7170.2397</x:v>
@@ -4017,7 +4017,7 @@
         <x:v>8700.87</x:v>
       </x:c>
       <x:c r="D191" s="6" t="n">
-        <x:v>897.27356</x:v>
+        <x:v>897.27909</x:v>
       </x:c>
       <x:c r="E191" s="6" t="n">
         <x:v>7170.2426</x:v>
@@ -4031,7 +4031,7 @@
         <x:v>7468.65</x:v>
       </x:c>
       <x:c r="D192" s="6" t="n">
-        <x:v>797.68743</x:v>
+        <x:v>797.69281</x:v>
       </x:c>
       <x:c r="E192" s="6" t="n">
         <x:v>7170.2441</x:v>
@@ -4094,7 +4094,7 @@
         <x:v>6922.79</x:v>
       </x:c>
       <x:c r="D195" s="6" t="n">
-        <x:v>1025.31287</x:v>
+        <x:v>1025.3186</x:v>
       </x:c>
       <x:c r="E195" s="6" t="n">
         <x:v>7170.2397</x:v>
@@ -4108,7 +4108,7 @@
         <x:v>8700.87</x:v>
       </x:c>
       <x:c r="D196" s="6" t="n">
-        <x:v>897.27356</x:v>
+        <x:v>897.27909</x:v>
       </x:c>
       <x:c r="E196" s="6" t="n">
         <x:v>7170.2426</x:v>
@@ -4122,7 +4122,7 @@
         <x:v>7468.65</x:v>
       </x:c>
       <x:c r="D197" s="6" t="n">
-        <x:v>797.68743</x:v>
+        <x:v>797.69281</x:v>
       </x:c>
       <x:c r="E197" s="6" t="n">
         <x:v>7170.2441</x:v>
@@ -4185,7 +4185,7 @@
         <x:v>1416.51</x:v>
       </x:c>
       <x:c r="D200" s="6" t="n">
-        <x:v>863.80112</x:v>
+        <x:v>863.80671</x:v>
       </x:c>
       <x:c r="E200" s="6" t="n">
         <x:v>4314.0345</x:v>
@@ -4199,7 +4199,7 @@
         <x:v>8093.7</x:v>
       </x:c>
       <x:c r="D201" s="6" t="n">
-        <x:v>720.00064</x:v>
+        <x:v>720.00601</x:v>
       </x:c>
       <x:c r="E201" s="6" t="n">
         <x:v>4314.038</x:v>
@@ -4213,7 +4213,7 @@
         <x:v>1055.08</x:v>
       </x:c>
       <x:c r="D202" s="6" t="n">
-        <x:v>617.286</x:v>
+        <x:v>617.29121</x:v>
       </x:c>
       <x:c r="E202" s="6" t="n">
         <x:v>4314.0391</x:v>
